--- a/augustine_thor_s290428/timesheet_augustine_s290428.xlsx
+++ b/augustine_thor_s290428/timesheet_augustine_s290428.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guzziplus/Desktop/University/Year 5/SEM 2/PRT585/S20PRT585_Group-A/augustine_thor_s290428/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655A36DF-8728-5645-A165-A368C8D18E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81C2CBB-EF2D-BA49-9093-8081D46D5B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="880" windowWidth="28040" windowHeight="17440" activeTab="9" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
+    <workbookView xWindow="1720" yWindow="880" windowWidth="28040" windowHeight="17440" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>WEE</t>
   </si>
@@ -51,14 +51,37 @@
   </si>
   <si>
     <t>WEEK</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Team discussion on assignments and ensuring git hub repo set up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTOL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME (HR) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,8 +109,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,14 +440,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C215C703-E494-EA47-B1E9-BAAE9D009904}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="91.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -418,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2A9927-FC41-EF4C-A0C0-F2E30926BFBC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
